--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111479730</v>
+        <v>111476587</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>506636.7902023449</v>
+        <v>506399.4467280412</v>
       </c>
       <c r="R3" t="n">
-        <v>7137086.695334492</v>
+        <v>7137130.808956717</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,12 +902,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111479731</v>
+        <v>111476580</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,34 +1042,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>506570.8492999141</v>
+        <v>506446.2270308413</v>
       </c>
       <c r="R5" t="n">
-        <v>7137093.05119953</v>
+        <v>7137160.362918839</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,22 +1126,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111479726</v>
+        <v>111479731</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1150,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506523.1528918216</v>
+        <v>506570.8492999141</v>
       </c>
       <c r="R6" t="n">
-        <v>7137086.451659708</v>
+        <v>7137093.05119953</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479727</v>
+        <v>111479733</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>96265</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,46 +1262,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>219790</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506615.9431346679</v>
+        <v>506542.631959103</v>
       </c>
       <c r="R7" t="n">
-        <v>7137099.645855149</v>
+        <v>7137104.68686779</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476591</v>
+        <v>111477159</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,34 +1378,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>506514.3320663989</v>
+        <v>506548.1973901832</v>
       </c>
       <c r="R8" t="n">
-        <v>7137155.308644285</v>
+        <v>7137138.920001913</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1470,22 +1462,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111476580</v>
+        <v>111476579</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1514,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>506446.2270308413</v>
+        <v>506411.5719905405</v>
       </c>
       <c r="R9" t="n">
-        <v>7137160.362918839</v>
+        <v>7137139.931017525</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,10 +1586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111476579</v>
+        <v>111476582</v>
       </c>
       <c r="B10" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,25 +1598,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1626,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>506411.5719905405</v>
+        <v>506514.3320663989</v>
       </c>
       <c r="R10" t="n">
-        <v>7137139.931017525</v>
+        <v>7137155.308644285</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,10 +1698,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111476587</v>
+        <v>111479728</v>
       </c>
       <c r="B11" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,38 +1710,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>506399.4467280412</v>
+        <v>506536.1601844588</v>
       </c>
       <c r="R11" t="n">
-        <v>7137130.808956717</v>
+        <v>7137088.645264999</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1806,22 +1798,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111479729</v>
+        <v>111479725</v>
       </c>
       <c r="B12" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1834,34 +1826,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>506569.97720399</v>
+        <v>506573.8724125003</v>
       </c>
       <c r="R12" t="n">
-        <v>7137095.215254448</v>
+        <v>7137099.122253072</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111479732</v>
+        <v>111479730</v>
       </c>
       <c r="B13" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,25 +1942,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1970,10 +1970,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506557.7929852068</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R13" t="n">
-        <v>7137113.816059647</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111477159</v>
+        <v>111479732</v>
       </c>
       <c r="B14" t="n">
-        <v>73696</v>
+        <v>96265</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2054,38 +2054,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>219790</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>SV gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>506548.1973901832</v>
+        <v>506557.7929852068</v>
       </c>
       <c r="R14" t="n">
-        <v>7137138.920001913</v>
+        <v>7137113.816059647</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2142,22 +2142,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479728</v>
+        <v>111479727</v>
       </c>
       <c r="B15" t="n">
-        <v>78579</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2170,34 +2170,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2081</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>506536.1601844588</v>
+        <v>506615.9431346679</v>
       </c>
       <c r="R15" t="n">
-        <v>7137088.645264999</v>
+        <v>7137099.645855149</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2266,10 +2274,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479733</v>
+        <v>111479729</v>
       </c>
       <c r="B16" t="n">
-        <v>96265</v>
+        <v>78579</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2278,25 +2286,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219790</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2314,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>506542.631959103</v>
+        <v>506569.97720399</v>
       </c>
       <c r="R16" t="n">
-        <v>7137104.68686779</v>
+        <v>7137095.215254448</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2378,10 +2386,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479725</v>
+        <v>111479726</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,46 +2398,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>506573.8724125003</v>
+        <v>506523.1528918216</v>
       </c>
       <c r="R17" t="n">
-        <v>7137099.122253072</v>
+        <v>7137086.451659708</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111480041</v>
+        <v>111480182</v>
       </c>
       <c r="B19" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,21 +2626,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2650,10 +2650,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>506532.6737455213</v>
+        <v>506612.9247734078</v>
       </c>
       <c r="R19" t="n">
-        <v>7137096.435164435</v>
+        <v>7137091.40884747</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111480182</v>
+        <v>111480035</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2738,21 +2738,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>506612.9247734078</v>
+        <v>506552.5373931379</v>
       </c>
       <c r="R20" t="n">
-        <v>7137091.40884747</v>
+        <v>7137137.629731925</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111480035</v>
+        <v>111480041</v>
       </c>
       <c r="B22" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,21 +2962,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>506552.5373931379</v>
+        <v>506532.6737455213</v>
       </c>
       <c r="R22" t="n">
-        <v>7137137.629731925</v>
+        <v>7137096.435164435</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111476587</v>
+        <v>111476583</v>
       </c>
       <c r="B3" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,25 +814,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>506399.4467280412</v>
+        <v>506622.9155112779</v>
       </c>
       <c r="R3" t="n">
-        <v>7137130.808956717</v>
+        <v>7137084.499428711</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111476583</v>
+        <v>111476577</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>506622.9155112779</v>
+        <v>506399.4467280412</v>
       </c>
       <c r="R4" t="n">
-        <v>7137084.499428711</v>
+        <v>7137130.808956717</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111476580</v>
+        <v>111479733</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>96265</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,38 +1038,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>506446.2270308413</v>
+        <v>506542.631959103</v>
       </c>
       <c r="R5" t="n">
-        <v>7137160.362918839</v>
+        <v>7137104.68686779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,22 +1126,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111479731</v>
+        <v>111476588</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,38 +1150,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506570.8492999141</v>
+        <v>506411.5719905405</v>
       </c>
       <c r="R6" t="n">
-        <v>7137093.05119953</v>
+        <v>7137139.931017525</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,22 +1238,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479733</v>
+        <v>111479725</v>
       </c>
       <c r="B7" t="n">
-        <v>96265</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,38 +1262,46 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219790</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506542.631959103</v>
+        <v>506573.8724125003</v>
       </c>
       <c r="R7" t="n">
-        <v>7137104.68686779</v>
+        <v>7137099.122253072</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1362,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111477159</v>
+        <v>111476589</v>
       </c>
       <c r="B8" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,34 +1386,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>SV gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>506548.1973901832</v>
+        <v>506446.2270308413</v>
       </c>
       <c r="R8" t="n">
-        <v>7137138.920001913</v>
+        <v>7137160.362918839</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1462,22 +1470,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111476579</v>
+        <v>111479726</v>
       </c>
       <c r="B9" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,34 +1498,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>506411.5719905405</v>
+        <v>506523.1528918216</v>
       </c>
       <c r="R9" t="n">
-        <v>7137139.931017525</v>
+        <v>7137086.451659708</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1574,12 +1582,12 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -1698,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479728</v>
+        <v>111479732</v>
       </c>
       <c r="B11" t="n">
-        <v>78579</v>
+        <v>96265</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1710,25 +1718,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1746,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>506536.1601844588</v>
+        <v>506557.7929852068</v>
       </c>
       <c r="R11" t="n">
-        <v>7137088.645264999</v>
+        <v>7137113.816059647</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1818,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111479725</v>
+        <v>111479731</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,42 +1834,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>506573.8724125003</v>
+        <v>506570.8492999141</v>
       </c>
       <c r="R12" t="n">
-        <v>7137099.122253072</v>
+        <v>7137093.05119953</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111479730</v>
+        <v>111479728</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1946,21 +1946,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1970,10 +1970,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506636.7902023449</v>
+        <v>506536.1601844588</v>
       </c>
       <c r="R13" t="n">
-        <v>7137086.695334492</v>
+        <v>7137088.645264999</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111479732</v>
+        <v>111479729</v>
       </c>
       <c r="B14" t="n">
-        <v>96265</v>
+        <v>78579</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2054,25 +2054,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219790</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>506557.7929852068</v>
+        <v>506569.97720399</v>
       </c>
       <c r="R14" t="n">
-        <v>7137113.816059647</v>
+        <v>7137095.215254448</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479727</v>
+        <v>111477159</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>73696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2170,42 +2170,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>SV gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>506615.9431346679</v>
+        <v>506548.1973901832</v>
       </c>
       <c r="R15" t="n">
-        <v>7137099.645855149</v>
+        <v>7137138.920001913</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2262,22 +2254,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479729</v>
+        <v>111479727</v>
       </c>
       <c r="B16" t="n">
-        <v>78579</v>
+        <v>56414</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2290,34 +2282,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>506569.97720399</v>
+        <v>506615.9431346679</v>
       </c>
       <c r="R16" t="n">
-        <v>7137095.215254448</v>
+        <v>7137099.645855149</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479726</v>
+        <v>111479730</v>
       </c>
       <c r="B17" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2398,25 +2398,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>506523.1528918216</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R17" t="n">
-        <v>7137086.451659708</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111480035</v>
+        <v>111480140</v>
       </c>
       <c r="B20" t="n">
-        <v>76513</v>
+        <v>78605</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2734,25 +2734,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>314</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>506552.5373931379</v>
+        <v>506612.9201057266</v>
       </c>
       <c r="R20" t="n">
-        <v>7137137.629731925</v>
+        <v>7137093.574760968</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111480140</v>
+        <v>111480035</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>76513</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,25 +2846,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>314</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>506612.9201057266</v>
+        <v>506552.5373931379</v>
       </c>
       <c r="R21" t="n">
-        <v>7137093.574760968</v>
+        <v>7137137.629731925</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>

--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111479733</v>
+        <v>111477159</v>
       </c>
       <c r="B5" t="n">
-        <v>96265</v>
+        <v>73696</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,38 +1038,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219790</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>SV gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>506542.631959103</v>
+        <v>506548.1973901832</v>
       </c>
       <c r="R5" t="n">
-        <v>7137104.68686779</v>
+        <v>7137138.920001913</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,22 +1126,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476588</v>
+        <v>111479728</v>
       </c>
       <c r="B6" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,38 +1150,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506411.5719905405</v>
+        <v>506536.1601844588</v>
       </c>
       <c r="R6" t="n">
-        <v>7137139.931017525</v>
+        <v>7137088.645264999</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,22 +1238,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479725</v>
+        <v>111476580</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,42 +1266,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506573.8724125003</v>
+        <v>506446.2270308413</v>
       </c>
       <c r="R7" t="n">
-        <v>7137099.122253072</v>
+        <v>7137160.362918839</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,22 +1350,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476589</v>
+        <v>111476582</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,21 +1378,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>506446.2270308413</v>
+        <v>506514.3320663989</v>
       </c>
       <c r="R8" t="n">
-        <v>7137160.362918839</v>
+        <v>7137155.308644285</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1594,10 +1586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111476582</v>
+        <v>111479729</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,34 +1602,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>506514.3320663989</v>
+        <v>506569.97720399</v>
       </c>
       <c r="R10" t="n">
-        <v>7137155.308644285</v>
+        <v>7137095.215254448</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1694,22 +1686,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479732</v>
+        <v>111479727</v>
       </c>
       <c r="B11" t="n">
-        <v>96265</v>
+        <v>56414</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,38 +1710,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219790</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>506557.7929852068</v>
+        <v>506615.9431346679</v>
       </c>
       <c r="R11" t="n">
-        <v>7137113.816059647</v>
+        <v>7137099.645855149</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111479728</v>
+        <v>111479730</v>
       </c>
       <c r="B13" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1946,21 +1946,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1970,10 +1970,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506536.1601844588</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R13" t="n">
-        <v>7137088.645264999</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111479729</v>
+        <v>111479732</v>
       </c>
       <c r="B14" t="n">
-        <v>78579</v>
+        <v>96265</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2054,25 +2054,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>219790</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>506569.97720399</v>
+        <v>506557.7929852068</v>
       </c>
       <c r="R14" t="n">
-        <v>7137095.215254448</v>
+        <v>7137113.816059647</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111477159</v>
+        <v>111476588</v>
       </c>
       <c r="B15" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2166,38 +2166,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>SV gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>506548.1973901832</v>
+        <v>506411.5719905405</v>
       </c>
       <c r="R15" t="n">
-        <v>7137138.920001913</v>
+        <v>7137139.931017525</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2254,22 +2254,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479727</v>
+        <v>111479725</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>506615.9431346679</v>
+        <v>506573.8724125003</v>
       </c>
       <c r="R16" t="n">
-        <v>7137099.645855149</v>
+        <v>7137099.122253072</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479730</v>
+        <v>111479733</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2398,25 +2398,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>506636.7902023449</v>
+        <v>506542.631959103</v>
       </c>
       <c r="R17" t="n">
-        <v>7137086.695334492</v>
+        <v>7137104.68686779</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111480182</v>
+        <v>111480035</v>
       </c>
       <c r="B19" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,21 +2626,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2650,10 +2650,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>506612.9247734078</v>
+        <v>506552.5373931379</v>
       </c>
       <c r="R19" t="n">
-        <v>7137091.40884747</v>
+        <v>7137137.629731925</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111480140</v>
+        <v>111480041</v>
       </c>
       <c r="B20" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2734,25 +2734,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>506612.9201057266</v>
+        <v>506532.6737455213</v>
       </c>
       <c r="R20" t="n">
-        <v>7137093.574760968</v>
+        <v>7137096.435164435</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111480035</v>
+        <v>111480140</v>
       </c>
       <c r="B21" t="n">
-        <v>76513</v>
+        <v>78605</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,25 +2846,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>314</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>506552.5373931379</v>
+        <v>506612.9201057266</v>
       </c>
       <c r="R21" t="n">
-        <v>7137137.629731925</v>
+        <v>7137093.574760968</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111480041</v>
+        <v>111480182</v>
       </c>
       <c r="B22" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,21 +2962,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>506532.6737455213</v>
+        <v>506612.9247734078</v>
       </c>
       <c r="R22" t="n">
-        <v>7137096.435164435</v>
+        <v>7137091.40884747</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111476577</v>
+        <v>111479727</v>
       </c>
       <c r="B4" t="n">
-        <v>96368</v>
+        <v>56414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,38 +926,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>506399.4467280412</v>
+        <v>506615.9431346679</v>
       </c>
       <c r="R4" t="n">
-        <v>7137130.808956717</v>
+        <v>7137099.645855149</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,22 +1022,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111477159</v>
+        <v>111476580</v>
       </c>
       <c r="B5" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,34 +1050,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>SV gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>506548.1973901832</v>
+        <v>506446.2270308413</v>
       </c>
       <c r="R5" t="n">
-        <v>7137138.920001913</v>
+        <v>7137160.362918839</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,22 +1134,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111479728</v>
+        <v>111477159</v>
       </c>
       <c r="B6" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,34 +1162,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>SV gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506536.1601844588</v>
+        <v>506548.1973901832</v>
       </c>
       <c r="R6" t="n">
-        <v>7137088.645264999</v>
+        <v>7137138.920001913</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,22 +1246,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111476580</v>
+        <v>111479733</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>96265</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,38 +1270,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506446.2270308413</v>
+        <v>506542.631959103</v>
       </c>
       <c r="R7" t="n">
-        <v>7137160.362918839</v>
+        <v>7137104.68686779</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1350,19 +1358,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476582</v>
+        <v>111476591</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1474,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111479726</v>
+        <v>111479730</v>
       </c>
       <c r="B9" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1494,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1514,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>506523.1528918216</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R9" t="n">
-        <v>7137086.451659708</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1586,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111479729</v>
+        <v>111479725</v>
       </c>
       <c r="B10" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1602,34 +1610,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>506569.97720399</v>
+        <v>506573.8724125003</v>
       </c>
       <c r="R10" t="n">
-        <v>7137095.215254448</v>
+        <v>7137099.122253072</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1698,10 +1714,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479727</v>
+        <v>111476588</v>
       </c>
       <c r="B11" t="n">
-        <v>56414</v>
+        <v>96368</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1710,46 +1726,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>506615.9431346679</v>
+        <v>506411.5719905405</v>
       </c>
       <c r="R11" t="n">
-        <v>7137099.645855149</v>
+        <v>7137139.931017525</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1806,22 +1814,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111479731</v>
+        <v>111476577</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1830,38 +1838,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>506570.8492999141</v>
+        <v>506399.4467280412</v>
       </c>
       <c r="R12" t="n">
-        <v>7137093.05119953</v>
+        <v>7137130.808956717</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1918,22 +1926,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111479730</v>
+        <v>111479728</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1946,21 +1954,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1970,10 +1978,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506636.7902023449</v>
+        <v>506536.1601844588</v>
       </c>
       <c r="R13" t="n">
-        <v>7137086.695334492</v>
+        <v>7137088.645264999</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2154,10 +2162,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111476588</v>
+        <v>111479731</v>
       </c>
       <c r="B15" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2166,38 +2174,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>506411.5719905405</v>
+        <v>506570.8492999141</v>
       </c>
       <c r="R15" t="n">
-        <v>7137139.931017525</v>
+        <v>7137093.05119953</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2254,22 +2262,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479725</v>
+        <v>111479726</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2278,46 +2286,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>506573.8724125003</v>
+        <v>506523.1528918216</v>
       </c>
       <c r="R16" t="n">
-        <v>7137099.122253072</v>
+        <v>7137086.451659708</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479733</v>
+        <v>111479729</v>
       </c>
       <c r="B17" t="n">
-        <v>96265</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2398,25 +2398,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219790</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>506542.631959103</v>
+        <v>506569.97720399</v>
       </c>
       <c r="R17" t="n">
-        <v>7137104.68686779</v>
+        <v>7137095.215254448</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111480035</v>
+        <v>111480041</v>
       </c>
       <c r="B19" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,21 +2626,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2650,10 +2650,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>506552.5373931379</v>
+        <v>506532.6737455213</v>
       </c>
       <c r="R19" t="n">
-        <v>7137137.629731925</v>
+        <v>7137096.435164435</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111480041</v>
+        <v>111480140</v>
       </c>
       <c r="B20" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2734,25 +2734,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>506532.6737455213</v>
+        <v>506612.9201057266</v>
       </c>
       <c r="R20" t="n">
-        <v>7137096.435164435</v>
+        <v>7137093.574760968</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111480140</v>
+        <v>111480182</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>78579</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,25 +2846,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>506612.9201057266</v>
+        <v>506612.9247734078</v>
       </c>
       <c r="R21" t="n">
-        <v>7137093.574760968</v>
+        <v>7137091.40884747</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111480182</v>
+        <v>111480035</v>
       </c>
       <c r="B22" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,21 +2962,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>506612.9247734078</v>
+        <v>506552.5373931379</v>
       </c>
       <c r="R22" t="n">
-        <v>7137091.40884747</v>
+        <v>7137137.629731925</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111476583</v>
+        <v>111479732</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>506622.9155112779</v>
+        <v>506557.7929852068</v>
       </c>
       <c r="R3" t="n">
-        <v>7137084.499428711</v>
+        <v>7137113.816059647</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,22 +902,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111479727</v>
+        <v>111476579</v>
       </c>
       <c r="B4" t="n">
-        <v>56414</v>
+        <v>96368</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,46 +926,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>506615.9431346679</v>
+        <v>506411.5719905405</v>
       </c>
       <c r="R4" t="n">
-        <v>7137099.645855149</v>
+        <v>7137139.931017525</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1022,22 +1014,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111476580</v>
+        <v>111479733</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>96265</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,38 +1038,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>506446.2270308413</v>
+        <v>506542.631959103</v>
       </c>
       <c r="R5" t="n">
-        <v>7137160.362918839</v>
+        <v>7137104.68686779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1134,22 +1126,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111477159</v>
+        <v>111476587</v>
       </c>
       <c r="B6" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,38 +1150,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>SV gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506548.1973901832</v>
+        <v>506399.4467280412</v>
       </c>
       <c r="R6" t="n">
-        <v>7137138.920001913</v>
+        <v>7137130.808956717</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1246,22 +1238,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479733</v>
+        <v>111476592</v>
       </c>
       <c r="B7" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,38 +1262,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506542.631959103</v>
+        <v>506622.9155112779</v>
       </c>
       <c r="R7" t="n">
-        <v>7137104.68686779</v>
+        <v>7137084.499428711</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,12 +1350,12 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
@@ -1482,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111479730</v>
+        <v>111479726</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1514,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>506636.7902023449</v>
+        <v>506523.1528918216</v>
       </c>
       <c r="R9" t="n">
-        <v>7137086.695334492</v>
+        <v>7137086.451659708</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,10 +1586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111479725</v>
+        <v>111477159</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,42 +1602,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>SV gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>506573.8724125003</v>
+        <v>506548.1973901832</v>
       </c>
       <c r="R10" t="n">
-        <v>7137099.122253072</v>
+        <v>7137138.920001913</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1702,22 +1686,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111476588</v>
+        <v>111479728</v>
       </c>
       <c r="B11" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1726,38 +1710,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>506411.5719905405</v>
+        <v>506536.1601844588</v>
       </c>
       <c r="R11" t="n">
-        <v>7137139.931017525</v>
+        <v>7137088.645264999</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1814,22 +1798,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111476577</v>
+        <v>111479731</v>
       </c>
       <c r="B12" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1838,38 +1822,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>506399.4467280412</v>
+        <v>506570.8492999141</v>
       </c>
       <c r="R12" t="n">
-        <v>7137130.808956717</v>
+        <v>7137093.05119953</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,19 +1910,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111479728</v>
+        <v>111479729</v>
       </c>
       <c r="B13" t="n">
         <v>78579</v>
@@ -1978,10 +1962,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506536.1601844588</v>
+        <v>506569.97720399</v>
       </c>
       <c r="R13" t="n">
-        <v>7137088.645264999</v>
+        <v>7137095.215254448</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2050,10 +2034,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111479732</v>
+        <v>111476589</v>
       </c>
       <c r="B14" t="n">
-        <v>96265</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2062,38 +2046,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>506557.7929852068</v>
+        <v>506446.2270308413</v>
       </c>
       <c r="R14" t="n">
-        <v>7137113.816059647</v>
+        <v>7137160.362918839</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2150,19 +2134,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479731</v>
+        <v>111479730</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2202,10 +2186,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>506570.8492999141</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R15" t="n">
-        <v>7137093.05119953</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2274,10 +2258,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479726</v>
+        <v>111479725</v>
       </c>
       <c r="B16" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2286,38 +2270,46 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>506523.1528918216</v>
+        <v>506573.8724125003</v>
       </c>
       <c r="R16" t="n">
-        <v>7137086.451659708</v>
+        <v>7137099.122253072</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479729</v>
+        <v>111479727</v>
       </c>
       <c r="B17" t="n">
-        <v>78579</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2402,34 +2394,42 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>506569.97720399</v>
+        <v>506615.9431346679</v>
       </c>
       <c r="R17" t="n">
-        <v>7137095.215254448</v>
+        <v>7137099.645855149</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111479732</v>
+        <v>111476589</v>
       </c>
       <c r="B3" t="n">
-        <v>96265</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>506557.7929852068</v>
+        <v>506446.2270308413</v>
       </c>
       <c r="R3" t="n">
-        <v>7137113.816059647</v>
+        <v>7137160.362918839</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,19 +902,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111476579</v>
+        <v>111476588</v>
       </c>
       <c r="B4" t="n">
         <v>96368</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111479733</v>
+        <v>111479731</v>
       </c>
       <c r="B5" t="n">
-        <v>96265</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,25 +1038,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>506542.631959103</v>
+        <v>506570.8492999141</v>
       </c>
       <c r="R5" t="n">
-        <v>7137104.68686779</v>
+        <v>7137093.05119953</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476587</v>
+        <v>111476582</v>
       </c>
       <c r="B6" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1150,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506399.4467280412</v>
+        <v>506514.3320663989</v>
       </c>
       <c r="R6" t="n">
-        <v>7137130.808956717</v>
+        <v>7137155.308644285</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111476592</v>
+        <v>111479726</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,38 +1262,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506622.9155112779</v>
+        <v>506523.1528918216</v>
       </c>
       <c r="R7" t="n">
-        <v>7137084.499428711</v>
+        <v>7137086.451659708</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1350,19 +1350,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476591</v>
+        <v>111479730</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1398,14 +1398,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>506514.3320663989</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R8" t="n">
-        <v>7137155.308644285</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1462,22 +1462,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111479726</v>
+        <v>111479727</v>
       </c>
       <c r="B9" t="n">
-        <v>78605</v>
+        <v>56414</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,38 +1486,46 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>506523.1528918216</v>
+        <v>506615.9431346679</v>
       </c>
       <c r="R9" t="n">
-        <v>7137086.451659708</v>
+        <v>7137099.645855149</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1586,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111477159</v>
+        <v>111479728</v>
       </c>
       <c r="B10" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1602,34 +1610,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>SV gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>506548.1973901832</v>
+        <v>506536.1601844588</v>
       </c>
       <c r="R10" t="n">
-        <v>7137138.920001913</v>
+        <v>7137088.645264999</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1686,22 +1694,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479728</v>
+        <v>111479725</v>
       </c>
       <c r="B11" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,34 +1722,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>506536.1601844588</v>
+        <v>506573.8724125003</v>
       </c>
       <c r="R11" t="n">
-        <v>7137088.645264999</v>
+        <v>7137099.122253072</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,7 +1826,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111479731</v>
+        <v>111476583</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1846,14 +1862,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>506570.8492999141</v>
+        <v>506622.9155112779</v>
       </c>
       <c r="R12" t="n">
-        <v>7137093.05119953</v>
+        <v>7137084.499428711</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1910,22 +1926,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111479729</v>
+        <v>111476577</v>
       </c>
       <c r="B13" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1934,38 +1950,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506569.97720399</v>
+        <v>506399.4467280412</v>
       </c>
       <c r="R13" t="n">
-        <v>7137095.215254448</v>
+        <v>7137130.808956717</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2022,22 +2038,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111476589</v>
+        <v>111479729</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2050,34 +2066,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>506446.2270308413</v>
+        <v>506569.97720399</v>
       </c>
       <c r="R14" t="n">
-        <v>7137160.362918839</v>
+        <v>7137095.215254448</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2134,22 +2150,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479730</v>
+        <v>111479732</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>96265</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2158,25 +2174,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2186,10 +2202,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>506636.7902023449</v>
+        <v>506557.7929852068</v>
       </c>
       <c r="R15" t="n">
-        <v>7137086.695334492</v>
+        <v>7137113.816059647</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2258,10 +2274,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479725</v>
+        <v>111479733</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>96265</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2270,46 +2286,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>219790</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>506573.8724125003</v>
+        <v>506542.631959103</v>
       </c>
       <c r="R16" t="n">
-        <v>7137099.122253072</v>
+        <v>7137104.68686779</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2378,10 +2386,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479727</v>
+        <v>111477159</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>73696</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2394,42 +2402,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>SV gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>506615.9431346679</v>
+        <v>506548.1973901832</v>
       </c>
       <c r="R17" t="n">
-        <v>7137099.645855149</v>
+        <v>7137138.920001913</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2486,12 +2486,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111480041</v>
+        <v>111480182</v>
       </c>
       <c r="B19" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,21 +2626,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2650,10 +2650,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>506532.6737455213</v>
+        <v>506612.9247734078</v>
       </c>
       <c r="R19" t="n">
-        <v>7137096.435164435</v>
+        <v>7137091.40884747</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111480182</v>
+        <v>111480035</v>
       </c>
       <c r="B21" t="n">
-        <v>78579</v>
+        <v>76513</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2850,21 +2850,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>314</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>506612.9247734078</v>
+        <v>506552.5373931379</v>
       </c>
       <c r="R21" t="n">
-        <v>7137091.40884747</v>
+        <v>7137137.629731925</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111480035</v>
+        <v>111480041</v>
       </c>
       <c r="B22" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,21 +2962,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>506552.5373931379</v>
+        <v>506532.6737455213</v>
       </c>
       <c r="R22" t="n">
-        <v>7137137.629731925</v>
+        <v>7137096.435164435</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>

--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476582</v>
+        <v>111479726</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,38 +1150,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506514.3320663989</v>
+        <v>506523.1528918216</v>
       </c>
       <c r="R6" t="n">
-        <v>7137155.308644285</v>
+        <v>7137086.451659708</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,22 +1238,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479726</v>
+        <v>111479730</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506523.1528918216</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R7" t="n">
-        <v>7137086.451659708</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111479730</v>
+        <v>111476582</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1398,14 +1398,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>506636.7902023449</v>
+        <v>506514.3320663989</v>
       </c>
       <c r="R8" t="n">
-        <v>7137086.695334492</v>
+        <v>7137155.308644285</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1462,12 +1462,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>

--- a/artfynd/A 31327-2023.xlsx
+++ b/artfynd/A 31327-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111476589</v>
+        <v>111479730</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,34 +818,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>506446.2270308413</v>
+        <v>506636.7902023449</v>
       </c>
       <c r="R3" t="n">
-        <v>7137160.362918839</v>
+        <v>7137086.695334492</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,22 +902,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111476588</v>
+        <v>111476582</v>
       </c>
       <c r="B4" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>506411.5719905405</v>
+        <v>506514.3320663989</v>
       </c>
       <c r="R4" t="n">
-        <v>7137139.931017525</v>
+        <v>7137155.308644285</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111479731</v>
+        <v>111479726</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,25 +1038,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>506570.8492999141</v>
+        <v>506523.1528918216</v>
       </c>
       <c r="R5" t="n">
-        <v>7137093.05119953</v>
+        <v>7137086.451659708</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111479726</v>
+        <v>111479725</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,38 +1150,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>506523.1528918216</v>
+        <v>506573.8724125003</v>
       </c>
       <c r="R6" t="n">
-        <v>7137086.451659708</v>
+        <v>7137099.122253072</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479730</v>
+        <v>111476587</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,38 +1270,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>506636.7902023449</v>
+        <v>506399.4467280412</v>
       </c>
       <c r="R7" t="n">
-        <v>7137086.695334492</v>
+        <v>7137130.808956717</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1350,22 +1358,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476582</v>
+        <v>111477159</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,34 +1386,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>506514.3320663989</v>
+        <v>506548.1973901832</v>
       </c>
       <c r="R8" t="n">
-        <v>7137155.308644285</v>
+        <v>7137138.920001913</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1462,12 +1470,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1594,10 +1602,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111479728</v>
+        <v>111479731</v>
       </c>
       <c r="B10" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1618,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1642,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>506536.1601844588</v>
+        <v>506570.8492999141</v>
       </c>
       <c r="R10" t="n">
-        <v>7137088.645264999</v>
+        <v>7137093.05119953</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,10 +1714,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479725</v>
+        <v>111479732</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>96265</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,46 +1726,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>506573.8724125003</v>
+        <v>506557.7929852068</v>
       </c>
       <c r="R11" t="n">
-        <v>7137099.122253072</v>
+        <v>7137113.816059647</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111476583</v>
+        <v>111479729</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1842,34 +1842,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sydvästra Gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>506622.9155112779</v>
+        <v>506569.97720399</v>
       </c>
       <c r="R12" t="n">
-        <v>7137084.499428711</v>
+        <v>7137095.215254448</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,22 +1926,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111476577</v>
+        <v>111476583</v>
       </c>
       <c r="B13" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506399.4467280412</v>
+        <v>506622.9155112779</v>
       </c>
       <c r="R13" t="n">
-        <v>7137130.808956717</v>
+        <v>7137084.499428711</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111479729</v>
+        <v>111476580</v>
       </c>
       <c r="B14" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2066,34 +2066,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>506569.97720399</v>
+        <v>506446.2270308413</v>
       </c>
       <c r="R14" t="n">
-        <v>7137095.215254448</v>
+        <v>7137160.362918839</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2150,22 +2150,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479732</v>
+        <v>111476579</v>
       </c>
       <c r="B15" t="n">
-        <v>96265</v>
+        <v>96368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2178,34 +2178,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>SV Gärdvattnet, Jmt</t>
+          <t>Sydvästra Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>506557.7929852068</v>
+        <v>506411.5719905405</v>
       </c>
       <c r="R15" t="n">
-        <v>7137113.816059647</v>
+        <v>7137139.931017525</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2262,12 +2262,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111477159</v>
+        <v>111479728</v>
       </c>
       <c r="B17" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2402,34 +2402,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>SV gärdvattnet, Jmt</t>
+          <t>SV Gärdvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>506548.1973901832</v>
+        <v>506536.1601844588</v>
       </c>
       <c r="R17" t="n">
-        <v>7137138.920001913</v>
+        <v>7137088.645264999</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2486,12 +2486,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Filippa Paperin</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Filippa Paperin, Karl Soler Kinnerbäck, Tore Dahlberg, Melvin Lewin, Elvira Klang, Elicia Olsson, Jonathan Frendel, Astrid Blomberg, Iris Elmér, Ivar Anderberg, Kai Strömberg, Signe Propst, Elias Blad</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111480035</v>
+        <v>111480041</v>
       </c>
       <c r="B21" t="n">
-        <v>76513</v>
+        <v>73696</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2850,21 +2850,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>314</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>506552.5373931379</v>
+        <v>506532.6737455213</v>
       </c>
       <c r="R21" t="n">
-        <v>7137137.629731925</v>
+        <v>7137096.435164435</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111480041</v>
+        <v>111480035</v>
       </c>
       <c r="B22" t="n">
-        <v>73696</v>
+        <v>76513</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2962,21 +2962,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>506532.6737455213</v>
+        <v>506552.5373931379</v>
       </c>
       <c r="R22" t="n">
-        <v>7137096.435164435</v>
+        <v>7137137.629731925</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
